--- a/docs/StructureDefinition-PdrAppointmentReminder.xlsx
+++ b/docs/StructureDefinition-PdrAppointmentReminder.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-07T10:16:51-05:00</t>
+    <t>2022-04-07T10:41:20-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PdrAppointmentReminder.xlsx
+++ b/docs/StructureDefinition-PdrAppointmentReminder.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-07T10:41:20-05:00</t>
+    <t>2022-04-07T11:11:08-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PdrAppointmentReminder.xlsx
+++ b/docs/StructureDefinition-PdrAppointmentReminder.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-07T11:11:08-05:00</t>
+    <t>2022-04-16T12:52:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PdrAppointmentReminder.xlsx
+++ b/docs/StructureDefinition-PdrAppointmentReminder.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-16T12:52:05-05:00</t>
+    <t>2022-04-16T13:01:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PdrAppointmentReminder.xlsx
+++ b/docs/StructureDefinition-PdrAppointmentReminder.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-16T13:01:50-05:00</t>
+    <t>2022-04-18T01:21:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
